--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Epgn-Egfr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Epgn-Egfr.xlsx
@@ -531,16 +531,16 @@
         <v>23</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.1876306666666666</v>
+        <v>0.05182466666666666</v>
       </c>
       <c r="H2">
-        <v>0.5628919999999999</v>
+        <v>0.155474</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.701354</v>
+        <v>0.74396</v>
       </c>
       <c r="N2">
-        <v>8.104061999999999</v>
+        <v>2.23188</v>
       </c>
       <c r="O2">
-        <v>0.02221077311549548</v>
+        <v>0.006259003216804254</v>
       </c>
       <c r="P2">
-        <v>0.02221077311549548</v>
+        <v>0.006259003216804255</v>
       </c>
       <c r="Q2">
-        <v>0.5068568519226666</v>
+        <v>0.03855547901333333</v>
       </c>
       <c r="R2">
-        <v>4.561711667303999</v>
+        <v>0.34699931112</v>
       </c>
       <c r="S2">
-        <v>0.02221077311549548</v>
+        <v>0.006259003216804254</v>
       </c>
       <c r="T2">
-        <v>0.02221077311549548</v>
+        <v>0.006259003216804255</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,16 +593,16 @@
         <v>24</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.1876306666666666</v>
+        <v>0.05182466666666666</v>
       </c>
       <c r="H3">
-        <v>0.5628919999999999</v>
+        <v>0.155474</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>88.14978533333334</v>
+        <v>88.14978533333333</v>
       </c>
       <c r="N3">
         <v>264.449356</v>
       </c>
       <c r="O3">
-        <v>0.7247753838328105</v>
+        <v>0.7416121699579786</v>
       </c>
       <c r="P3">
-        <v>0.7247753838328105</v>
+        <v>0.7416121699579786</v>
       </c>
       <c r="Q3">
-        <v>16.53960298861689</v>
+        <v>4.568333241638221</v>
       </c>
       <c r="R3">
-        <v>148.856426897552</v>
+        <v>41.11499917474399</v>
       </c>
       <c r="S3">
-        <v>0.7247753838328105</v>
+        <v>0.7416121699579786</v>
       </c>
       <c r="T3">
-        <v>0.7247753838328105</v>
+        <v>0.7416121699579786</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,16 +655,16 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.1876306666666666</v>
+        <v>0.05182466666666666</v>
       </c>
       <c r="H4">
-        <v>0.5628919999999999</v>
+        <v>0.155474</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>30.53182233333333</v>
+        <v>29.76859933333333</v>
       </c>
       <c r="N4">
-        <v>91.595467</v>
+        <v>89.305798</v>
       </c>
       <c r="O4">
-        <v>0.2510353617660938</v>
+        <v>0.2504459365921425</v>
       </c>
       <c r="P4">
-        <v>0.2510353617660938</v>
+        <v>0.2504459365921425</v>
       </c>
       <c r="Q4">
-        <v>5.728706178951555</v>
+        <v>1.542747737583555</v>
       </c>
       <c r="R4">
-        <v>51.55835561056399</v>
+        <v>13.884729638252</v>
       </c>
       <c r="S4">
-        <v>0.2510353617660938</v>
+        <v>0.2504459365921425</v>
       </c>
       <c r="T4">
-        <v>0.2510353617660938</v>
+        <v>0.2504459365921425</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,16 +717,16 @@
         <v>25</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.1876306666666666</v>
+        <v>0.05182466666666666</v>
       </c>
       <c r="H5">
-        <v>0.5628919999999999</v>
+        <v>0.155474</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.24063</v>
+        <v>0.2000323333333334</v>
       </c>
       <c r="N5">
-        <v>0.72189</v>
+        <v>0.6000970000000001</v>
       </c>
       <c r="O5">
-        <v>0.001978481285600361</v>
+        <v>0.00168289023307462</v>
       </c>
       <c r="P5">
-        <v>0.001978481285600361</v>
+        <v>0.00168289023307462</v>
       </c>
       <c r="Q5">
-        <v>0.04514956731999999</v>
+        <v>0.01036660899755556</v>
       </c>
       <c r="R5">
-        <v>0.40634610588</v>
+        <v>0.09329948097800002</v>
       </c>
       <c r="S5">
-        <v>0.001978481285600361</v>
+        <v>0.00168289023307462</v>
       </c>
       <c r="T5">
-        <v>0.001978481285600361</v>
+        <v>0.00168289023307462</v>
       </c>
     </row>
   </sheetData>
